--- a/medicine/Enfance/Marie-Charlotte_Delmas/Marie-Charlotte_Delmas.xlsx
+++ b/medicine/Enfance/Marie-Charlotte_Delmas/Marie-Charlotte_Delmas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marie-Charlotte Delmas, née à Toulouse est une écrivaine et une scénariste française[1]. 
-En tant qu'écrivaine, elle se spécialise dans la littérature fantastique[2]. Sémiologue, spécialisée dans les croyances populaires françaises, elle publie différents articles et ouvrages sur ce sujet.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marie-Charlotte Delmas, née à Toulouse est une écrivaine et une scénariste française. 
+En tant qu'écrivaine, elle se spécialise dans la littérature fantastique. Sémiologue, spécialisée dans les croyances populaires françaises, elle publie différents articles et ouvrages sur ce sujet.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Née à Toulouse, Marie-Charlotte Delmas se dirige d’abord vers l’écriture théâtrale et la mise en scène. Parallèlement, elle suit des études de Lettres modernes avant de s’engager dans les sciences du langage à l’École des hautes études en sciences sociales. Sémiologue, titulaire d’une thèse de doctorat dirigée par Gérard Genette, elle partage son travail entre son métier de conservateur de bibliothèque, la recherche et l’écriture. Spécialisée dans les discours liés au surnaturel et les croyances populaires, c’est grâce aux encouragements de son ami, le folkloriste et écrivain Claude Seignolle, sur lequel elle publie deux essais, qu’elle se lance dans la fiction en 1999. 
 Après la sortie de ses premiers romans fantastiques pour enfants, elle dirige la collection Chauve-Souris aux éditions Syros jusqu’en 2002, collection pour laquelle elle écrit une dizaine de livres. Elle se lance également dans le scénario de bande dessinée avec les dessinateurs Max Cabanes et Pierre Wininger.
-En 2003, Marie-Charlotte Delmas abandonne la fiction pour reprendre ses recherches sur les croyances et légendes populaires, thèmes sur lesquels elle publie plusieurs ouvrages. Après vingt années de recherches et de travail, elle publie chez Omnibus Le Dictionnaire de la France mystérieuse (2016) et le Dictionnaire de la France merveilleuse (2017)[3].
-En 2019, elle publie un roman Rennes-le-Château : l'Évangile des Bergers. Elle y démonte le mythe de Rennes-le-Château en y recréant un mythe encore plus extraordinaire[4].
+En 2003, Marie-Charlotte Delmas abandonne la fiction pour reprendre ses recherches sur les croyances et légendes populaires, thèmes sur lesquels elle publie plusieurs ouvrages. Après vingt années de recherches et de travail, elle publie chez Omnibus Le Dictionnaire de la France mystérieuse (2016) et le Dictionnaire de la France merveilleuse (2017).
+En 2019, elle publie un roman Rennes-le-Château : l'Évangile des Bergers. Elle y démonte le mythe de Rennes-le-Château en y recréant un mythe encore plus extraordinaire.
 </t>
         </is>
       </c>
@@ -548,11 +562,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Claude Seignolle
-Seignolle, le bateleur de chimères, édition Hesse, 1er mars 1998.  (ISBN 978-2-911272-13-4).
-Claude Seignolle, le meneur de contes, Le Temps qu'il fait, 19 mai 1998.  (ISBN 978-2-86853-228-2).
-Croyances populaires, contes et légendes
-Superstitions et croyances des pays de France, Le Chêne, 16 avril 2003.  (ISBN 978-2-84277-457-8).
+          <t>Claude Seignolle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Seignolle, le bateleur de chimères, édition Hesse, 1er mars 1998.  (ISBN 978-2-911272-13-4).
+Claude Seignolle, le meneur de contes, Le Temps qu'il fait, 19 mai 1998.  (ISBN 978-2-86853-228-2).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Marie-Charlotte_Delmas</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie-Charlotte_Delmas</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Croyances populaires, contes et légendes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Superstitions et croyances des pays de France, Le Chêne, 16 avril 2003.  (ISBN 978-2-84277-457-8).
 Sur la trace des fées, Glénat, 2004, 7 décembre 2004.  (ISBN 978-2-7234-4738-6)
 Le Grand Livre des contes populaires de France, (préface de Claude Seignolle), Éditions Omnibus, 1er octobre 2007.  (ISBN 978-2-258-07091-2).
 Les Contes de Perrault dans tous leurs états, avec Annie Colognat, Éditions Omnibus, 2007.
@@ -566,9 +619,43 @@
 Fées, lutins et chimères, Éditions Omnibus, 18 mai 2011.  (ISBN 978-2-258-08925-9)
 Dictionnaire de la France mystérieuse, Éditions Omnibus, 20 octobre 2016.  (ISBN 978-2-258-13623-6). Réédition France Loisirs de l'ouvrage sortie en décembre 2017.
 Dictionnaire de la France merveilleuse, Éditions Omnibus, 9 mai 2017,  (ISBN 978-2-258-13624-3).
-Rennes-le-Château - L'Évangile Des Bergers, roman, éditions de l'Œil du sphinx, 26 novembre 2019,  (ISBN 978-2-38014-013-2).
-Livres pour la jeunesse et bandes dessinées
-La Ferme du diable, Syros, 1999.
+Rennes-le-Château - L'Évangile Des Bergers, roman, éditions de l'Œil du sphinx, 26 novembre 2019,  (ISBN 978-2-38014-013-2).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Marie-Charlotte_Delmas</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie-Charlotte_Delmas</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Livres pour la jeunesse et bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La Ferme du diable, Syros, 1999.
 Le Petit lexique des superstitions, Syros, illustré par Max Cabanes, 1999.
 Le Petit lexique des vampires, Syros, illustré par Max Cabanes, 2000.
 Le Petit lexique des fantômes, Syros, illustré par Max Cabanes, 2000.
@@ -585,31 +672,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Marie-Charlotte_Delmas</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Marie-Charlotte_Delmas</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Prix spécial du jury du prix Imaginales pour Le Grand Légendaire de France, en 2007 à Épinal.</t>
         </is>
